--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/15/seed4/result_data_KNN.xlsx
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.43</v>
+        <v>-12.965</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.862</v>
+        <v>5.552</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.372</v>
+        <v>-11.601</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.368</v>
+        <v>-12.845</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>4.456</v>
+        <v>5.103</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.662000000000001</v>
+        <v>6.85</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.432</v>
+        <v>-13.131</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,10 +890,10 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.164</v>
+        <v>5.526000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-14.25</v>
+        <v>-13.664</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.144</v>
+        <v>-12.233</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>7.596000000000001</v>
+        <v>7.657999999999999</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.606</v>
+        <v>-13.426</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.462</v>
+        <v>-13.313</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.21</v>
+        <v>-11.591</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.5</v>
+        <v>-11.621</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.48</v>
+        <v>-13.752</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1604,10 +1604,10 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.625999999999999</v>
+        <v>5.667</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.986</v>
+        <v>-10.732</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,7 +1624,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.994</v>
+        <v>-11.645</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.787999999999999</v>
+        <v>6.723999999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>7.836</v>
+        <v>7.230999999999999</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.756</v>
+        <v>-13.418</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.342000000000001</v>
+        <v>5.061</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.666</v>
+        <v>5.404999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.518</v>
+        <v>-13.668</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.658</v>
+        <v>5.628</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.746</v>
+        <v>-13.419</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
